--- a/natmiOut/OldD0/LR-pairs_lrc2p/Sema6b-Plxna2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Sema6b-Plxna2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.826650069734</v>
+        <v>12.30845866666667</v>
       </c>
       <c r="H2">
-        <v>11.826650069734</v>
+        <v>36.925376</v>
       </c>
       <c r="I2">
-        <v>0.8050011441283188</v>
+        <v>0.8110859927786954</v>
       </c>
       <c r="J2">
-        <v>0.8050011441283188</v>
+        <v>0.8110859927786955</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.03750236362781</v>
+        <v>20.186605</v>
       </c>
       <c r="N2">
-        <v>7.03750236362781</v>
+        <v>60.559815</v>
       </c>
       <c r="O2">
-        <v>0.3593343386355438</v>
+        <v>0.6134655823028334</v>
       </c>
       <c r="P2">
-        <v>0.3593343386355438</v>
+        <v>0.6134655823028335</v>
       </c>
       <c r="Q2">
-        <v>83.23007781955202</v>
+        <v>248.4659932628267</v>
       </c>
       <c r="R2">
-        <v>83.23007781955202</v>
+        <v>2236.19393936544</v>
       </c>
       <c r="S2">
-        <v>0.2892645537262055</v>
+        <v>0.4975733408576541</v>
       </c>
       <c r="T2">
-        <v>0.2892645537262055</v>
+        <v>0.4975733408576543</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.826650069734</v>
+        <v>12.30845866666667</v>
       </c>
       <c r="H3">
-        <v>11.826650069734</v>
+        <v>36.925376</v>
       </c>
       <c r="I3">
-        <v>0.8050011441283188</v>
+        <v>0.8110859927786954</v>
       </c>
       <c r="J3">
-        <v>0.8050011441283188</v>
+        <v>0.8110859927786955</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.68528649540889</v>
+        <v>6.772365</v>
       </c>
       <c r="N3">
-        <v>6.68528649540889</v>
+        <v>20.317095</v>
       </c>
       <c r="O3">
-        <v>0.3413502230326119</v>
+        <v>0.2058103796201654</v>
       </c>
       <c r="P3">
-        <v>0.3413502230326119</v>
+        <v>0.2058103796201654</v>
       </c>
       <c r="Q3">
-        <v>79.06454399711933</v>
+        <v>83.35737467807999</v>
       </c>
       <c r="R3">
-        <v>79.06454399711933</v>
+        <v>750.2163721027199</v>
       </c>
       <c r="S3">
-        <v>0.2747873200897094</v>
+        <v>0.166929916078382</v>
       </c>
       <c r="T3">
-        <v>0.2747873200897094</v>
+        <v>0.166929916078382</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.826650069734</v>
+        <v>12.30845866666667</v>
       </c>
       <c r="H4">
-        <v>11.826650069734</v>
+        <v>36.925376</v>
       </c>
       <c r="I4">
-        <v>0.8050011441283188</v>
+        <v>0.8110859927786954</v>
       </c>
       <c r="J4">
-        <v>0.8050011441283188</v>
+        <v>0.8110859927786955</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.86204233285677</v>
+        <v>5.946877666666667</v>
       </c>
       <c r="N4">
-        <v>5.86204233285677</v>
+        <v>17.840633</v>
       </c>
       <c r="O4">
-        <v>0.2993154383318443</v>
+        <v>0.1807240380770012</v>
       </c>
       <c r="P4">
-        <v>0.2993154383318443</v>
+        <v>0.1807240380770012</v>
       </c>
       <c r="Q4">
-        <v>69.32832336466419</v>
+        <v>73.19689795588978</v>
       </c>
       <c r="R4">
-        <v>69.32832336466419</v>
+        <v>658.772081603008</v>
       </c>
       <c r="S4">
-        <v>0.2409492703124039</v>
+        <v>0.1465827358426592</v>
       </c>
       <c r="T4">
-        <v>0.2409492703124039</v>
+        <v>0.1465827358426593</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.47561052073125</v>
+        <v>2.47579</v>
       </c>
       <c r="H5">
-        <v>2.47561052073125</v>
+        <v>7.42737</v>
       </c>
       <c r="I5">
-        <v>0.1685066599463175</v>
+        <v>0.1631462268707758</v>
       </c>
       <c r="J5">
-        <v>0.1685066599463175</v>
+        <v>0.1631462268707758</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.03750236362781</v>
+        <v>20.186605</v>
       </c>
       <c r="N5">
-        <v>7.03750236362781</v>
+        <v>60.559815</v>
       </c>
       <c r="O5">
-        <v>0.3593343386355438</v>
+        <v>0.6134655823028334</v>
       </c>
       <c r="P5">
-        <v>0.3593343386355438</v>
+        <v>0.6134655823028335</v>
       </c>
       <c r="Q5">
-        <v>17.42211489106804</v>
+        <v>49.97779479295</v>
       </c>
       <c r="R5">
-        <v>17.42211489106804</v>
+        <v>449.80015313655</v>
       </c>
       <c r="S5">
-        <v>0.06055022920749448</v>
+        <v>0.1000845950677906</v>
       </c>
       <c r="T5">
-        <v>0.06055022920749448</v>
+        <v>0.1000845950677907</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.47561052073125</v>
+        <v>2.47579</v>
       </c>
       <c r="H6">
-        <v>2.47561052073125</v>
+        <v>7.42737</v>
       </c>
       <c r="I6">
-        <v>0.1685066599463175</v>
+        <v>0.1631462268707758</v>
       </c>
       <c r="J6">
-        <v>0.1685066599463175</v>
+        <v>0.1631462268707758</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.68528649540889</v>
+        <v>6.772365</v>
       </c>
       <c r="N6">
-        <v>6.68528649540889</v>
+        <v>20.317095</v>
       </c>
       <c r="O6">
-        <v>0.3413502230326119</v>
+        <v>0.2058103796201654</v>
       </c>
       <c r="P6">
-        <v>0.3413502230326119</v>
+        <v>0.2058103796201654</v>
       </c>
       <c r="Q6">
-        <v>16.5501655821368</v>
+        <v>16.76695354335</v>
       </c>
       <c r="R6">
-        <v>16.5501655821368</v>
+        <v>150.90258189015</v>
       </c>
       <c r="S6">
-        <v>0.05751978595515597</v>
+        <v>0.03357718688587199</v>
       </c>
       <c r="T6">
-        <v>0.05751978595515597</v>
+        <v>0.03357718688587199</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.47561052073125</v>
+        <v>2.47579</v>
       </c>
       <c r="H7">
-        <v>2.47561052073125</v>
+        <v>7.42737</v>
       </c>
       <c r="I7">
-        <v>0.1685066599463175</v>
+        <v>0.1631462268707758</v>
       </c>
       <c r="J7">
-        <v>0.1685066599463175</v>
+        <v>0.1631462268707758</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.86204233285677</v>
+        <v>5.946877666666667</v>
       </c>
       <c r="N7">
-        <v>5.86204233285677</v>
+        <v>17.840633</v>
       </c>
       <c r="O7">
-        <v>0.2993154383318443</v>
+        <v>0.1807240380770012</v>
       </c>
       <c r="P7">
-        <v>0.2993154383318443</v>
+        <v>0.1807240380770012</v>
       </c>
       <c r="Q7">
-        <v>14.51213367219218</v>
+        <v>14.72322025835667</v>
       </c>
       <c r="R7">
-        <v>14.51213367219218</v>
+        <v>132.50898232521</v>
       </c>
       <c r="S7">
-        <v>0.05043664478366705</v>
+        <v>0.02948444491711315</v>
       </c>
       <c r="T7">
-        <v>0.05043664478366705</v>
+        <v>0.02948444491711316</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.389209298736309</v>
+        <v>0.3910333333333333</v>
       </c>
       <c r="H8">
-        <v>0.389209298736309</v>
+        <v>1.1731</v>
       </c>
       <c r="I8">
-        <v>0.0264921959253637</v>
+        <v>0.0257677803505288</v>
       </c>
       <c r="J8">
-        <v>0.0264921959253637</v>
+        <v>0.0257677803505288</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.03750236362781</v>
+        <v>20.186605</v>
       </c>
       <c r="N8">
-        <v>7.03750236362781</v>
+        <v>60.559815</v>
       </c>
       <c r="O8">
-        <v>0.3593343386355438</v>
+        <v>0.6134655823028334</v>
       </c>
       <c r="P8">
-        <v>0.3593343386355438</v>
+        <v>0.6134655823028335</v>
       </c>
       <c r="Q8">
-        <v>2.739061359802697</v>
+        <v>7.893635441833333</v>
       </c>
       <c r="R8">
-        <v>2.739061359802697</v>
+        <v>71.0427189765</v>
       </c>
       <c r="S8">
-        <v>0.009519555701843811</v>
+        <v>0.01580764637738866</v>
       </c>
       <c r="T8">
-        <v>0.009519555701843811</v>
+        <v>0.01580764637738866</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.389209298736309</v>
+        <v>0.3910333333333333</v>
       </c>
       <c r="H9">
-        <v>0.389209298736309</v>
+        <v>1.1731</v>
       </c>
       <c r="I9">
-        <v>0.0264921959253637</v>
+        <v>0.0257677803505288</v>
       </c>
       <c r="J9">
-        <v>0.0264921959253637</v>
+        <v>0.0257677803505288</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.68528649540889</v>
+        <v>6.772365</v>
       </c>
       <c r="N9">
-        <v>6.68528649540889</v>
+        <v>20.317095</v>
       </c>
       <c r="O9">
-        <v>0.3413502230326119</v>
+        <v>0.2058103796201654</v>
       </c>
       <c r="P9">
-        <v>0.3413502230326119</v>
+        <v>0.2058103796201654</v>
       </c>
       <c r="Q9">
-        <v>2.601975668729411</v>
+        <v>2.6482204605</v>
       </c>
       <c r="R9">
-        <v>2.601975668729411</v>
+        <v>23.8339841445</v>
       </c>
       <c r="S9">
-        <v>0.009043116987746548</v>
+        <v>0.00530327665591137</v>
       </c>
       <c r="T9">
-        <v>0.009043116987746548</v>
+        <v>0.00530327665591137</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.389209298736309</v>
+        <v>0.3910333333333333</v>
       </c>
       <c r="H10">
-        <v>0.389209298736309</v>
+        <v>1.1731</v>
       </c>
       <c r="I10">
-        <v>0.0264921959253637</v>
+        <v>0.0257677803505288</v>
       </c>
       <c r="J10">
-        <v>0.0264921959253637</v>
+        <v>0.0257677803505288</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.86204233285677</v>
+        <v>5.946877666666667</v>
       </c>
       <c r="N10">
-        <v>5.86204233285677</v>
+        <v>17.840633</v>
       </c>
       <c r="O10">
-        <v>0.2993154383318443</v>
+        <v>0.1807240380770012</v>
       </c>
       <c r="P10">
-        <v>0.2993154383318443</v>
+        <v>0.1807240380770012</v>
       </c>
       <c r="Q10">
-        <v>2.28156138553374</v>
+        <v>2.325427396922222</v>
       </c>
       <c r="R10">
-        <v>2.28156138553374</v>
+        <v>20.9288465723</v>
       </c>
       <c r="S10">
-        <v>0.007929523235773332</v>
+        <v>0.004656857317228769</v>
       </c>
       <c r="T10">
-        <v>0.007929523235773332</v>
+        <v>0.00465685731722877</v>
       </c>
     </row>
   </sheetData>
